--- a/simulated_data/10nodes_50len_trial1.xlsx
+++ b/simulated_data/10nodes_50len_trial1.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.09474572082203</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.669466478562222</v>
+        <v>48.33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.595</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.695</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.635</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.99</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.28567163327027</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.6236909013406</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.395</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.465</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35.855</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.595</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.95</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.88652724953166</v>
+        <v>39.05</v>
       </c>
       <c r="C4" t="n">
-        <v>-23.4499320679736</v>
+        <v>34.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.355</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.495</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37.795</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.705</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.294068009654993</v>
+        <v>38.595</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.43024157923448</v>
+        <v>8.395</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.095</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.195</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.905</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.118107084208773</v>
+        <v>25.03</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.32288584143079</v>
+        <v>26.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.685</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.095</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.075</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.615</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.04740846216027</v>
+        <v>32.175</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.5805746687324</v>
+        <v>25.465</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.265</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.38500000000001</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.25463870988747</v>
+        <v>8.695</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.413875798575625</v>
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.355</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.195</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.075</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36.925</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.625</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-16.41277973009097</v>
+        <v>31.28</v>
       </c>
       <c r="C9" t="n">
-        <v>-14.3995708155198</v>
+        <v>35.855</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.495</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.835000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.555</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.9398417715975</v>
+        <v>45.635</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.03071315754244</v>
+        <v>41.595</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37.795</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25.265</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.925</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.835000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23.425</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>12.99</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>47.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.905</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.615</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.38500000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.555</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23.425</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>42.3</v>
+        <v>38.54</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24</v>
+        <v>44.31</v>
       </c>
       <c r="E2" t="n">
-        <v>34.03</v>
+        <v>35.01</v>
       </c>
       <c r="F2" t="n">
-        <v>21.21</v>
+        <v>32.99</v>
       </c>
       <c r="G2" t="n">
-        <v>31.5</v>
+        <v>28.02</v>
       </c>
       <c r="H2" t="n">
-        <v>10.44</v>
+        <v>7.56</v>
       </c>
       <c r="I2" t="n">
-        <v>34.03</v>
+        <v>23.01</v>
       </c>
       <c r="J2" t="n">
-        <v>37.13</v>
+        <v>12.16</v>
       </c>
       <c r="K2" t="n">
-        <v>14.75</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.3</v>
+        <v>38.54</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.78</v>
+        <v>37.19</v>
       </c>
       <c r="E3" t="n">
-        <v>8.619999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="F3" t="n">
-        <v>26.98</v>
+        <v>22.38</v>
       </c>
       <c r="G3" t="n">
-        <v>27.12</v>
+        <v>39.33</v>
       </c>
       <c r="H3" t="n">
-        <v>34.38</v>
+        <v>45.61</v>
       </c>
       <c r="I3" t="n">
-        <v>39.88</v>
+        <v>35.37</v>
       </c>
       <c r="J3" t="n">
-        <v>46.51</v>
+        <v>27.93</v>
       </c>
       <c r="K3" t="n">
-        <v>46.61</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51.24</v>
+        <v>44.31</v>
       </c>
       <c r="C4" t="n">
-        <v>24.78</v>
+        <v>37.19</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.97</v>
+        <v>27.07</v>
       </c>
       <c r="F4" t="n">
-        <v>30.12</v>
+        <v>16.18</v>
       </c>
       <c r="G4" t="n">
-        <v>21.22</v>
+        <v>19.55</v>
       </c>
       <c r="H4" t="n">
-        <v>47.69</v>
+        <v>46.77</v>
       </c>
       <c r="I4" t="n">
-        <v>29.38</v>
+        <v>22.28</v>
       </c>
       <c r="J4" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="K4" t="n">
-        <v>47.95</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.03</v>
+        <v>35.01</v>
       </c>
       <c r="C5" t="n">
-        <v>8.619999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="D5" t="n">
-        <v>28.97</v>
+        <v>27.07</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09</v>
+        <v>12.13</v>
       </c>
       <c r="G5" t="n">
-        <v>24.4</v>
+        <v>29.9</v>
       </c>
       <c r="H5" t="n">
-        <v>25.79</v>
+        <v>41.24</v>
       </c>
       <c r="I5" t="n">
-        <v>36.84</v>
+        <v>26.57</v>
       </c>
       <c r="J5" t="n">
-        <v>43.4</v>
+        <v>23.1</v>
       </c>
       <c r="K5" t="n">
-        <v>39.65</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.21</v>
+        <v>32.99</v>
       </c>
       <c r="C6" t="n">
-        <v>26.98</v>
+        <v>22.38</v>
       </c>
       <c r="D6" t="n">
-        <v>30.12</v>
+        <v>16.18</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09</v>
+        <v>12.13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.79</v>
+        <v>18.95</v>
       </c>
       <c r="H6" t="n">
-        <v>19.89</v>
+        <v>37.52</v>
       </c>
       <c r="I6" t="n">
-        <v>18.67</v>
+        <v>17.06</v>
       </c>
       <c r="J6" t="n">
-        <v>24.49</v>
+        <v>21.18</v>
       </c>
       <c r="K6" t="n">
-        <v>20.07</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.5</v>
+        <v>28.02</v>
       </c>
       <c r="C7" t="n">
-        <v>27.12</v>
+        <v>39.33</v>
       </c>
       <c r="D7" t="n">
-        <v>21.22</v>
+        <v>19.55</v>
       </c>
       <c r="E7" t="n">
-        <v>24.4</v>
+        <v>29.9</v>
       </c>
       <c r="F7" t="n">
-        <v>10.79</v>
+        <v>18.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.62</v>
+        <v>28.61</v>
       </c>
       <c r="I7" t="n">
-        <v>12.77</v>
+        <v>5.66</v>
       </c>
       <c r="J7" t="n">
-        <v>19.4</v>
+        <v>21.43</v>
       </c>
       <c r="K7" t="n">
-        <v>26.73</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.44</v>
+        <v>7.56</v>
       </c>
       <c r="C8" t="n">
-        <v>34.38</v>
+        <v>45.61</v>
       </c>
       <c r="D8" t="n">
-        <v>47.69</v>
+        <v>46.77</v>
       </c>
       <c r="E8" t="n">
-        <v>25.79</v>
+        <v>41.24</v>
       </c>
       <c r="F8" t="n">
-        <v>19.89</v>
+        <v>37.52</v>
       </c>
       <c r="G8" t="n">
-        <v>30.62</v>
+        <v>28.61</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.9</v>
+        <v>24.55</v>
       </c>
       <c r="J8" t="n">
-        <v>41.43</v>
+        <v>18.16</v>
       </c>
       <c r="K8" t="n">
-        <v>23.2</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.03</v>
+        <v>23.01</v>
       </c>
       <c r="C9" t="n">
-        <v>39.88</v>
+        <v>35.37</v>
       </c>
       <c r="D9" t="n">
-        <v>29.38</v>
+        <v>22.28</v>
       </c>
       <c r="E9" t="n">
-        <v>36.84</v>
+        <v>26.57</v>
       </c>
       <c r="F9" t="n">
-        <v>18.67</v>
+        <v>17.06</v>
       </c>
       <c r="G9" t="n">
-        <v>12.77</v>
+        <v>5.66</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9</v>
+        <v>24.55</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.64</v>
+        <v>15.78</v>
       </c>
       <c r="K9" t="n">
-        <v>23.69</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.13</v>
+        <v>12.16</v>
       </c>
       <c r="C10" t="n">
-        <v>46.51</v>
+        <v>27.93</v>
       </c>
       <c r="D10" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="E10" t="n">
-        <v>43.4</v>
+        <v>23.1</v>
       </c>
       <c r="F10" t="n">
-        <v>24.49</v>
+        <v>21.18</v>
       </c>
       <c r="G10" t="n">
-        <v>19.4</v>
+        <v>21.43</v>
       </c>
       <c r="H10" t="n">
-        <v>41.43</v>
+        <v>18.16</v>
       </c>
       <c r="I10" t="n">
-        <v>6.64</v>
+        <v>15.78</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.79</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.75</v>
+        <v>19.11</v>
       </c>
       <c r="C11" t="n">
-        <v>46.61</v>
+        <v>23.73</v>
       </c>
       <c r="D11" t="n">
-        <v>47.95</v>
+        <v>27.9</v>
       </c>
       <c r="E11" t="n">
-        <v>39.65</v>
+        <v>17.1</v>
       </c>
       <c r="F11" t="n">
-        <v>20.07</v>
+        <v>14.15</v>
       </c>
       <c r="G11" t="n">
-        <v>26.73</v>
+        <v>18.62</v>
       </c>
       <c r="H11" t="n">
-        <v>23.2</v>
+        <v>24.51</v>
       </c>
       <c r="I11" t="n">
-        <v>23.69</v>
+        <v>13.35</v>
       </c>
       <c r="J11" t="n">
-        <v>24.79</v>
+        <v>7.06</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.62758045122428</v>
+        <v>28.71315229333551</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.475171197193236</v>
+        <v>11.89255647990996</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.203365381954375</v>
+        <v>-6.614620850140596</v>
       </c>
       <c r="C3" t="n">
-        <v>25.37665411134206</v>
+        <v>27.30536691282457</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.48601859511251</v>
+        <v>-9.968281292962651</v>
       </c>
       <c r="C4" t="n">
-        <v>11.14653903526503</v>
+        <v>-9.729698338854201</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.923386785475272</v>
+        <v>-5.921885037991069</v>
       </c>
       <c r="C5" t="n">
-        <v>20.53023922583063</v>
+        <v>17.03599874209028</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.265969311513096</v>
+        <v>-3.57247748914884</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5522556093326624</v>
+        <v>5.130664071859225</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.480372089087005</v>
+        <v>9.544980229374083</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.544248014854245</v>
+        <v>-8.551158075797172</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-21.65061729573081</v>
+        <v>33.92747016194382</v>
       </c>
       <c r="C8" t="n">
-        <v>3.916594981300335</v>
+        <v>6.414199184697374</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.52742409184899</v>
+        <v>11.32397591984399</v>
       </c>
       <c r="C9" t="n">
-        <v>-14.14434582560353</v>
+        <v>-3.178301042304251</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.68115993947896</v>
+        <v>16.55701820074761</v>
       </c>
       <c r="C10" t="n">
-        <v>-20.68217670423353</v>
+        <v>11.70344896168625</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-12.9107862535384</v>
+        <v>9.688794625676346</v>
       </c>
       <c r="C11" t="n">
-        <v>-17.57183000252085</v>
+        <v>10.06712691053427</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16.78</v>
+        <v>19.74</v>
       </c>
       <c r="D2" t="n">
-        <v>30.62</v>
+        <v>27.5</v>
       </c>
       <c r="E2" t="n">
-        <v>30.2</v>
+        <v>17.89</v>
       </c>
       <c r="F2" t="n">
-        <v>15.52</v>
+        <v>6.93</v>
       </c>
       <c r="G2" t="n">
-        <v>31.88</v>
+        <v>27.43</v>
       </c>
       <c r="H2" t="n">
-        <v>14.68</v>
+        <v>11.87</v>
       </c>
       <c r="I2" t="n">
-        <v>26.43</v>
+        <v>6.32</v>
       </c>
       <c r="J2" t="n">
-        <v>46.56</v>
+        <v>8.6</v>
       </c>
       <c r="K2" t="n">
-        <v>36.5</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.78</v>
+        <v>19.74</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21.39</v>
+        <v>7.76</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3</v>
+        <v>1.85</v>
       </c>
       <c r="F3" t="n">
-        <v>22.23</v>
+        <v>12.81</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11</v>
+        <v>7.69</v>
       </c>
       <c r="H3" t="n">
-        <v>31.46</v>
+        <v>7.87</v>
       </c>
       <c r="I3" t="n">
-        <v>31.88</v>
+        <v>13.42</v>
       </c>
       <c r="J3" t="n">
-        <v>52.86</v>
+        <v>11.14</v>
       </c>
       <c r="K3" t="n">
-        <v>49.5</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.62</v>
+        <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>21.39</v>
+        <v>7.76</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.14</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>21.81</v>
+        <v>20.57</v>
       </c>
       <c r="G4" t="n">
-        <v>9.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>40.27</v>
+        <v>15.63</v>
       </c>
       <c r="I4" t="n">
-        <v>23.91</v>
+        <v>21.18</v>
       </c>
       <c r="J4" t="n">
-        <v>40.69</v>
+        <v>18.91</v>
       </c>
       <c r="K4" t="n">
-        <v>47.82</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.2</v>
+        <v>17.89</v>
       </c>
       <c r="C5" t="n">
-        <v>32.3</v>
+        <v>1.85</v>
       </c>
       <c r="D5" t="n">
-        <v>20.14</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.68</v>
+        <v>10.96</v>
       </c>
       <c r="G5" t="n">
-        <v>11.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>32.3</v>
+        <v>6.02</v>
       </c>
       <c r="I5" t="n">
-        <v>6.71</v>
+        <v>11.57</v>
       </c>
       <c r="J5" t="n">
-        <v>21.39</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>29.78</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.52</v>
+        <v>6.93</v>
       </c>
       <c r="C6" t="n">
-        <v>22.23</v>
+        <v>12.81</v>
       </c>
       <c r="D6" t="n">
-        <v>21.81</v>
+        <v>20.57</v>
       </c>
       <c r="E6" t="n">
-        <v>14.68</v>
+        <v>10.96</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.88</v>
+        <v>20.5</v>
       </c>
       <c r="H6" t="n">
-        <v>19.3</v>
+        <v>4.93</v>
       </c>
       <c r="I6" t="n">
-        <v>10.91</v>
+        <v>0.61</v>
       </c>
       <c r="J6" t="n">
-        <v>31.88</v>
+        <v>1.66</v>
       </c>
       <c r="K6" t="n">
-        <v>28.53</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.88</v>
+        <v>27.43</v>
       </c>
       <c r="C7" t="n">
-        <v>28.11</v>
+        <v>7.69</v>
       </c>
       <c r="D7" t="n">
-        <v>9.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>11.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>18.88</v>
+        <v>20.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.17</v>
+        <v>15.56</v>
       </c>
       <c r="I7" t="n">
-        <v>16.78</v>
+        <v>21.11</v>
       </c>
       <c r="J7" t="n">
-        <v>31.04</v>
+        <v>18.84</v>
       </c>
       <c r="K7" t="n">
-        <v>40.69</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.68</v>
+        <v>11.87</v>
       </c>
       <c r="C8" t="n">
-        <v>31.46</v>
+        <v>7.87</v>
       </c>
       <c r="D8" t="n">
-        <v>40.27</v>
+        <v>15.63</v>
       </c>
       <c r="E8" t="n">
-        <v>32.3</v>
+        <v>6.02</v>
       </c>
       <c r="F8" t="n">
-        <v>19.3</v>
+        <v>4.93</v>
       </c>
       <c r="G8" t="n">
-        <v>38.17</v>
+        <v>15.56</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>26.01</v>
+        <v>5.55</v>
       </c>
       <c r="J8" t="n">
-        <v>41.53</v>
+        <v>3.27</v>
       </c>
       <c r="K8" t="n">
-        <v>25.17</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.43</v>
+        <v>6.32</v>
       </c>
       <c r="C9" t="n">
-        <v>31.88</v>
+        <v>13.42</v>
       </c>
       <c r="D9" t="n">
-        <v>23.91</v>
+        <v>21.18</v>
       </c>
       <c r="E9" t="n">
-        <v>6.71</v>
+        <v>11.57</v>
       </c>
       <c r="F9" t="n">
-        <v>10.91</v>
+        <v>0.61</v>
       </c>
       <c r="G9" t="n">
-        <v>16.78</v>
+        <v>21.11</v>
       </c>
       <c r="H9" t="n">
-        <v>26.01</v>
+        <v>5.55</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.97</v>
+        <v>2.28</v>
       </c>
       <c r="K9" t="n">
-        <v>23.91</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46.56</v>
+        <v>8.6</v>
       </c>
       <c r="C10" t="n">
-        <v>52.86</v>
+        <v>11.14</v>
       </c>
       <c r="D10" t="n">
-        <v>40.69</v>
+        <v>18.91</v>
       </c>
       <c r="E10" t="n">
-        <v>21.39</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.88</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>31.04</v>
+        <v>18.84</v>
       </c>
       <c r="H10" t="n">
-        <v>41.53</v>
+        <v>3.27</v>
       </c>
       <c r="I10" t="n">
-        <v>20.97</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.91</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.5</v>
+        <v>5.91</v>
       </c>
       <c r="C11" t="n">
-        <v>49.5</v>
+        <v>25.65</v>
       </c>
       <c r="D11" t="n">
-        <v>47.82</v>
+        <v>33.41</v>
       </c>
       <c r="E11" t="n">
-        <v>29.78</v>
+        <v>23.79</v>
       </c>
       <c r="F11" t="n">
-        <v>28.53</v>
+        <v>12.84</v>
       </c>
       <c r="G11" t="n">
-        <v>40.69</v>
+        <v>33.34</v>
       </c>
       <c r="H11" t="n">
-        <v>25.17</v>
+        <v>17.77</v>
       </c>
       <c r="I11" t="n">
-        <v>23.91</v>
+        <v>12.23</v>
       </c>
       <c r="J11" t="n">
-        <v>23.91</v>
+        <v>14.5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4293473697980848</v>
+        <v>-3.175802299755585</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1837140584995238</v>
+        <v>-3.175802299755368</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2466276967868157</v>
+        <v>-17.13421245211006</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5427227286388304</v>
+        <v>-17.13421245211621</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2540044097613588</v>
+        <v>-22.622712749515</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4310225900302979</v>
+        <v>-22.6227127495105</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2540733300022037</v>
+        <v>-15.82451028180579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04473553549524964</v>
+        <v>-15.82451028180854</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0856141791668053</v>
+        <v>-8.078123966154008</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03888005885961612</v>
+        <v>-8.07812396615399</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3318520846336466</v>
+        <v>-22.57331569442808</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.212987581539999</v>
+        <v>-22.5733156944269</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.502799493390735</v>
+        <v>-11.56768055373505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1610735678350287</v>
+        <v>-11.56768055373375</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1187982460913015</v>
+        <v>-7.644569123311732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1255620644278736</v>
+        <v>-7.644569123309402</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4221364409623165</v>
+        <v>-9.254177420822927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5227993711267547</v>
+        <v>-9.25417742081809</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1382700503542486</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.636206960932188</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.15</v>
+        <v>47.68</v>
       </c>
       <c r="D2" t="n">
-        <v>43.03</v>
+        <v>32.32</v>
       </c>
       <c r="E2" t="n">
-        <v>24.24</v>
+        <v>39.9</v>
       </c>
       <c r="F2" t="n">
-        <v>17.56</v>
+        <v>23.6</v>
       </c>
       <c r="G2" t="n">
-        <v>36.9</v>
+        <v>41.09</v>
       </c>
       <c r="H2" t="n">
-        <v>9.23</v>
+        <v>9.51</v>
       </c>
       <c r="I2" t="n">
-        <v>34.43</v>
+        <v>29.38</v>
       </c>
       <c r="J2" t="n">
-        <v>32.37</v>
+        <v>35.83</v>
       </c>
       <c r="K2" t="n">
-        <v>12.49</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.15</v>
+        <v>47.68</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.54</v>
+        <v>29.7</v>
       </c>
       <c r="E3" t="n">
-        <v>13.51</v>
+        <v>8.27</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07</v>
+        <v>26.29</v>
       </c>
       <c r="G3" t="n">
-        <v>10.75</v>
+        <v>23.29</v>
       </c>
       <c r="H3" t="n">
-        <v>38.68</v>
+        <v>42.18</v>
       </c>
       <c r="I3" t="n">
-        <v>6.81</v>
+        <v>36.03</v>
       </c>
       <c r="J3" t="n">
-        <v>11.95</v>
+        <v>40.65</v>
       </c>
       <c r="K3" t="n">
-        <v>33.17</v>
+        <v>47.33</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.03</v>
+        <v>32.32</v>
       </c>
       <c r="C4" t="n">
-        <v>15.54</v>
+        <v>29.7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.18</v>
+        <v>22.38</v>
       </c>
       <c r="F4" t="n">
-        <v>31.19</v>
+        <v>27.29</v>
       </c>
       <c r="G4" t="n">
-        <v>6.74</v>
+        <v>41.17</v>
       </c>
       <c r="H4" t="n">
-        <v>41.11</v>
+        <v>23.1</v>
       </c>
       <c r="I4" t="n">
-        <v>22.14</v>
+        <v>42.43</v>
       </c>
       <c r="J4" t="n">
-        <v>27.04</v>
+        <v>49.85</v>
       </c>
       <c r="K4" t="n">
-        <v>43.26</v>
+        <v>41.81</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.24</v>
+        <v>39.9</v>
       </c>
       <c r="C5" t="n">
-        <v>13.51</v>
+        <v>8.27</v>
       </c>
       <c r="D5" t="n">
-        <v>20.18</v>
+        <v>22.38</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>13.52</v>
+        <v>22.96</v>
       </c>
       <c r="H5" t="n">
-        <v>25.16</v>
+        <v>34.02</v>
       </c>
       <c r="I5" t="n">
-        <v>13.51</v>
+        <v>32.14</v>
       </c>
       <c r="J5" t="n">
-        <v>14.92</v>
+        <v>37.91</v>
       </c>
       <c r="K5" t="n">
-        <v>23.08</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.56</v>
+        <v>23.6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.07</v>
+        <v>26.29</v>
       </c>
       <c r="D6" t="n">
-        <v>31.19</v>
+        <v>27.29</v>
       </c>
       <c r="E6" t="n">
-        <v>11.19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.45</v>
+        <v>18.51</v>
       </c>
       <c r="H6" t="n">
-        <v>22.46</v>
+        <v>21.88</v>
       </c>
       <c r="I6" t="n">
-        <v>17.17</v>
+        <v>15.18</v>
       </c>
       <c r="J6" t="n">
-        <v>14.82</v>
+        <v>22.56</v>
       </c>
       <c r="K6" t="n">
-        <v>12.31</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.9</v>
+        <v>41.09</v>
       </c>
       <c r="C7" t="n">
-        <v>10.75</v>
+        <v>23.29</v>
       </c>
       <c r="D7" t="n">
-        <v>6.74</v>
+        <v>41.17</v>
       </c>
       <c r="E7" t="n">
-        <v>13.52</v>
+        <v>22.96</v>
       </c>
       <c r="F7" t="n">
-        <v>24.45</v>
+        <v>18.51</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.79</v>
+        <v>40.38</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65</v>
+        <v>16.71</v>
       </c>
       <c r="J7" t="n">
-        <v>21.2</v>
+        <v>18.6</v>
       </c>
       <c r="K7" t="n">
-        <v>36.56</v>
+        <v>33.27</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.23</v>
+        <v>9.51</v>
       </c>
       <c r="C8" t="n">
-        <v>38.68</v>
+        <v>42.18</v>
       </c>
       <c r="D8" t="n">
-        <v>41.11</v>
+        <v>23.1</v>
       </c>
       <c r="E8" t="n">
-        <v>25.16</v>
+        <v>34.02</v>
       </c>
       <c r="F8" t="n">
-        <v>22.46</v>
+        <v>21.88</v>
       </c>
       <c r="G8" t="n">
-        <v>35.79</v>
+        <v>40.38</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.53</v>
+        <v>32.24</v>
       </c>
       <c r="J8" t="n">
-        <v>36.67</v>
+        <v>39.52</v>
       </c>
       <c r="K8" t="n">
-        <v>21.2</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.43</v>
+        <v>29.38</v>
       </c>
       <c r="C9" t="n">
-        <v>6.81</v>
+        <v>36.03</v>
       </c>
       <c r="D9" t="n">
-        <v>22.14</v>
+        <v>42.43</v>
       </c>
       <c r="E9" t="n">
-        <v>13.51</v>
+        <v>32.14</v>
       </c>
       <c r="F9" t="n">
-        <v>17.17</v>
+        <v>15.18</v>
       </c>
       <c r="G9" t="n">
-        <v>16.65</v>
+        <v>16.71</v>
       </c>
       <c r="H9" t="n">
-        <v>37.53</v>
+        <v>32.24</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.18</v>
+        <v>7.61</v>
       </c>
       <c r="K9" t="n">
-        <v>28.48</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.37</v>
+        <v>35.83</v>
       </c>
       <c r="C10" t="n">
-        <v>11.95</v>
+        <v>40.65</v>
       </c>
       <c r="D10" t="n">
-        <v>27.04</v>
+        <v>49.85</v>
       </c>
       <c r="E10" t="n">
-        <v>14.92</v>
+        <v>37.91</v>
       </c>
       <c r="F10" t="n">
-        <v>14.82</v>
+        <v>22.56</v>
       </c>
       <c r="G10" t="n">
-        <v>21.2</v>
+        <v>18.6</v>
       </c>
       <c r="H10" t="n">
-        <v>36.67</v>
+        <v>39.52</v>
       </c>
       <c r="I10" t="n">
-        <v>5.18</v>
+        <v>7.61</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.91</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.49</v>
+        <v>15.64</v>
       </c>
       <c r="C11" t="n">
-        <v>33.17</v>
+        <v>47.33</v>
       </c>
       <c r="D11" t="n">
-        <v>43.26</v>
+        <v>41.81</v>
       </c>
       <c r="E11" t="n">
-        <v>23.08</v>
+        <v>41.03</v>
       </c>
       <c r="F11" t="n">
-        <v>12.31</v>
+        <v>21.11</v>
       </c>
       <c r="G11" t="n">
-        <v>36.56</v>
+        <v>33.27</v>
       </c>
       <c r="H11" t="n">
-        <v>21.2</v>
+        <v>22.86</v>
       </c>
       <c r="I11" t="n">
-        <v>28.48</v>
+        <v>17.72</v>
       </c>
       <c r="J11" t="n">
-        <v>24.91</v>
+        <v>22.31</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.43805790863234</v>
+        <v>-2.505598608597295</v>
       </c>
       <c r="C2" t="n">
-        <v>7.122646218905775</v>
+        <v>22.77221934892622</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-13.53106860512901</v>
+        <v>15.95594110814947</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.43693183969756</v>
+        <v>-21.19180641995345</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.816845929877687</v>
+        <v>25.63305250974322</v>
       </c>
       <c r="C4" t="n">
-        <v>-32.30006300101772</v>
+        <v>6.882449146414032</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.051575411540906</v>
+        <v>15.26815087662045</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.30716293246495</v>
+        <v>-12.95537726391796</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.038999956935677</v>
+        <v>-0.5721297811389485</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.16355620849499</v>
+        <v>-0.7496223934219302</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.697862227359314</v>
+        <v>-7.122075724050726</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.56200413142358</v>
+        <v>-18.05882141739215</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.31978609119247</v>
+        <v>6.565819813033496</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9745604739502612</v>
+        <v>19.92962511018409</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-15.54348769861015</v>
+        <v>-15.48038228700665</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.93206923127561</v>
+        <v>-3.591680851115404</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.28174818428447</v>
+        <v>-22.19627658562047</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.808962815546215</v>
+        <v>-7.168060513531541</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4525517724110251</v>
+        <v>-15.54650132113256</v>
       </c>
       <c r="C11" t="n">
-        <v>10.6362327255316</v>
+        <v>14.13107525380807</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001690387725830078</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001969337463378906</v>
+        <v>15.45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.277191162109375</v>
+        <v>9.44</v>
       </c>
       <c r="E2" t="n">
-        <v>1.488363027572632</v>
+        <v>24.89</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1423120498657227</v>
+        <v>36.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2473607063293457</v>
+        <v>16.31</v>
       </c>
       <c r="H2" t="n">
-        <v>1.720126867294312</v>
+        <v>27.04</v>
+      </c>
+      <c r="I2" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="K2" t="n">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.4767930235419171</v>
       </c>
       <c r="C2" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6131508678237649</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.472000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2598986869124116</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001690387725830078</v>
+        <v>-0.1632173289086543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.2258567086851906</v>
       </c>
       <c r="C3" t="n">
-        <v>19.035</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6131508678237649</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.13488888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1901397852935559</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001969337463378906</v>
+        <v>-0.4208972697364084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.3044396680188666</v>
       </c>
       <c r="C4" t="n">
-        <v>52.23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9382072929764685</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.078</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3855943284993871</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.277191162109375</v>
+        <v>-0.03340836497197217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.03964974540891883</v>
       </c>
       <c r="C5" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9443796188253598</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.19488888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4566965440949514</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.488363027572632</v>
+        <v>-0.4296292384215384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.3265168977319247</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.338891613536047</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.879333333333333</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2451702547328807</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1423120498657227</v>
+        <v>0.06483500670106328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.1208950612682961</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.167999999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.806888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4495267176839555</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2473607063293457</v>
+        <v>-0.02759224971951759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.3266434833765753</v>
       </c>
       <c r="C8" t="n">
-        <v>44.68</v>
+        <v>0.4534471955887497</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.6035491191092848</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3404196732470206</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1119540642371967</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4952852703606817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4273179370355711</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.322931881455463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.55</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1616</v>
+        <v>48.08</v>
       </c>
       <c r="E8" t="n">
-        <v>9.997555555555556</v>
+        <v>21.68</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3353160905919373</v>
+        <v>18.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>35.49</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.720126867294312</v>
+        <v>32.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.09617548335586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.989388811566867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-9.615382428541499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.92592783876161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-25.30977121971866</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-25.81275899049884</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.472433025379844</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.57108407038318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.796056212420746</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.850027912523338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-17.82355519453994</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.88187889468148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.06211922926805</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.32522196577991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-16.12744650526973</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.068622821608569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-12.31955272397558</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.266844806026091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.167474409020613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.06977666819812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="I2" t="n">
+        <v>48</v>
+      </c>
+      <c r="J2" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4471183681037847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.4282666127597762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5849191434756468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1148647295852963</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1141058357377437</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.002692669801293214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4496705154942583</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2873954561586118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.001428344284415295</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05724210599013706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1446949460542736</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1819302987874305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2318816993564397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3922531350135971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1692845627927667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5116035131270823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.07876332301509803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5167637710057014</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3649141432115919</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.04206708559216406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-31.88148482649289</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-32.99514245293973</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>49.70355891295976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.51464533755187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.12339909075228</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.678175420381841</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38.04038129810477</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-15.58913872447954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.773582337948131</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.794377276074317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.386927885544145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.73430116973896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-13.92011217024035</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-29.77500982833817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.26082251764233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.42666350023789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-12.22015023734239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.11295459103093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-32.19811509769493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.516184773390939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.000270843505859375</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002591609954833984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002605915069580078</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.906778812408447</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.771095514297485</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3367834091186523</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07492780685424805</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.931177616119385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01455402374267578</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009803056716918945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>48.33</v>
+        <v>19.64</v>
       </c>
       <c r="D2" t="n">
-        <v>48.33</v>
+        <v>17.37</v>
       </c>
       <c r="E2" t="n">
-        <v>48.33</v>
+        <v>18.3</v>
       </c>
       <c r="F2" t="n">
-        <v>18.19</v>
+        <v>17.88</v>
       </c>
       <c r="G2" t="n">
-        <v>36.61</v>
+        <v>20.92</v>
       </c>
       <c r="H2" t="n">
-        <v>11.26</v>
+        <v>8.23</v>
       </c>
       <c r="I2" t="n">
-        <v>36.09</v>
+        <v>23.04</v>
       </c>
       <c r="J2" t="n">
-        <v>48.33</v>
+        <v>19.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13.03</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.33</v>
+        <v>19.64</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.54</v>
+        <v>22.17</v>
       </c>
       <c r="E3" t="n">
-        <v>5.48</v>
+        <v>10.04</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02</v>
+        <v>3.37</v>
       </c>
       <c r="G3" t="n">
-        <v>30.75</v>
+        <v>20.64</v>
       </c>
       <c r="H3" t="n">
-        <v>37.47</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>41.54</v>
+        <v>15.76</v>
       </c>
       <c r="J3" t="n">
-        <v>34.86</v>
+        <v>25.58</v>
       </c>
       <c r="K3" t="n">
-        <v>48.33</v>
+        <v>30.57</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.77</v>
+        <v>17.37</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>22.17</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.52</v>
+        <v>28.06</v>
       </c>
       <c r="F4" t="n">
-        <v>22.46</v>
+        <v>23.16</v>
       </c>
       <c r="G4" t="n">
-        <v>48.33</v>
+        <v>5.39</v>
       </c>
       <c r="H4" t="n">
-        <v>31.89</v>
+        <v>25.59</v>
       </c>
       <c r="I4" t="n">
-        <v>43.15</v>
+        <v>12.06</v>
       </c>
       <c r="J4" t="n">
-        <v>27.26</v>
+        <v>3.44</v>
       </c>
       <c r="K4" t="n">
-        <v>47.08</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.86</v>
+        <v>18.3</v>
       </c>
       <c r="C5" t="n">
-        <v>11.31</v>
+        <v>10.04</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2</v>
+        <v>28.06</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="G5" t="n">
-        <v>19.06</v>
+        <v>28.16</v>
       </c>
       <c r="H5" t="n">
-        <v>26.72</v>
+        <v>17.75</v>
       </c>
       <c r="I5" t="n">
-        <v>48.33</v>
+        <v>24.84</v>
       </c>
       <c r="J5" t="n">
-        <v>40.95</v>
+        <v>31.18</v>
       </c>
       <c r="K5" t="n">
-        <v>25.2</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.87</v>
+        <v>17.88</v>
       </c>
       <c r="C6" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="K6" t="n">
         <v>28.86</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="E6" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.81</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.74</v>
+        <v>20.92</v>
       </c>
       <c r="C7" t="n">
-        <v>20.18</v>
+        <v>20.64</v>
       </c>
       <c r="D7" t="n">
-        <v>48.33</v>
+        <v>5.39</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54</v>
+        <v>28.16</v>
       </c>
       <c r="F7" t="n">
-        <v>14.68</v>
+        <v>22.37</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.19</v>
+        <v>28.93</v>
       </c>
       <c r="I7" t="n">
-        <v>22.1</v>
+        <v>7.43</v>
       </c>
       <c r="J7" t="n">
-        <v>22.19</v>
+        <v>7.75</v>
       </c>
       <c r="K7" t="n">
-        <v>39.45</v>
+        <v>27.01</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.13</v>
+        <v>8.23</v>
       </c>
       <c r="C8" t="n">
-        <v>36.53</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>32.82</v>
+        <v>25.59</v>
       </c>
       <c r="E8" t="n">
-        <v>39.67</v>
+        <v>17.75</v>
       </c>
       <c r="F8" t="n">
-        <v>27.98</v>
+        <v>20.29</v>
       </c>
       <c r="G8" t="n">
-        <v>48.33</v>
+        <v>28.93</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.99</v>
+        <v>30.21</v>
       </c>
       <c r="J8" t="n">
-        <v>48.33</v>
+        <v>27.22</v>
       </c>
       <c r="K8" t="n">
-        <v>29.16</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.47</v>
+        <v>23.04</v>
       </c>
       <c r="C9" t="n">
-        <v>30.17</v>
+        <v>15.76</v>
       </c>
       <c r="D9" t="n">
-        <v>13.84</v>
+        <v>12.06</v>
       </c>
       <c r="E9" t="n">
-        <v>48.33</v>
+        <v>24.84</v>
       </c>
       <c r="F9" t="n">
-        <v>23.13</v>
+        <v>18.29</v>
       </c>
       <c r="G9" t="n">
-        <v>12.22</v>
+        <v>7.43</v>
       </c>
       <c r="H9" t="n">
-        <v>26.15</v>
+        <v>30.21</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>22.82</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.94</v>
+        <v>19.03</v>
       </c>
       <c r="C10" t="n">
-        <v>48.33</v>
+        <v>25.58</v>
       </c>
       <c r="D10" t="n">
-        <v>48.33</v>
+        <v>3.44</v>
       </c>
       <c r="E10" t="n">
-        <v>35.78</v>
+        <v>31.18</v>
       </c>
       <c r="F10" t="n">
-        <v>24.04</v>
+        <v>26.48</v>
       </c>
       <c r="G10" t="n">
-        <v>28.34</v>
+        <v>7.75</v>
       </c>
       <c r="H10" t="n">
-        <v>25.52</v>
+        <v>27.22</v>
       </c>
       <c r="I10" t="n">
-        <v>8.51</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20.15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.95</v>
       </c>
-      <c r="C11" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="D11" t="n">
-        <v>48.33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>36.61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="G11" t="n">
-        <v>37.32</v>
-      </c>
-      <c r="H11" t="n">
-        <v>34.09</v>
-      </c>
       <c r="I11" t="n">
-        <v>24.29</v>
+        <v>31.31</v>
       </c>
       <c r="J11" t="n">
-        <v>26.7</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.97988644125688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.73748045062689</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-10.4068442380332</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.612395364439864</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.29540460229462</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.314214349818784</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.2990761154645</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.60868534350472</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-9.939199620366248</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.948041502463298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.538818852130905</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.176742065891212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.967433746311732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.71489542363919</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8532065189724146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.925015249406867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.65014473966031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.084744621498533</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.25642136781156</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.6166795714609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6131508678237649</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.472000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2598986869124116</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001690387725830078</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19.035</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6131508678237649</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.13488888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1901397852935559</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001969337463378906</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9382072929764685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.078</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3855943284993871</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.277191162109375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9443796188253598</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.19488888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4566965440949514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.488363027572632</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.338891613536047</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.879333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2451702547328807</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1423120498657227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.167999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.806888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4495267176839555</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2473607063293457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.1616</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.997555555555556</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3353160905919373</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.720126867294312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5748,28 +8332,28 @@
         <v>48.33</v>
       </c>
       <c r="D2" t="n">
-        <v>39.05</v>
+        <v>48.33</v>
       </c>
       <c r="E2" t="n">
-        <v>38.595</v>
+        <v>48.33</v>
       </c>
       <c r="F2" t="n">
-        <v>25.03</v>
+        <v>18.19</v>
       </c>
       <c r="G2" t="n">
-        <v>32.175</v>
+        <v>36.61</v>
       </c>
       <c r="H2" t="n">
-        <v>8.695</v>
+        <v>11.26</v>
       </c>
       <c r="I2" t="n">
-        <v>31.28</v>
+        <v>36.09</v>
       </c>
       <c r="J2" t="n">
-        <v>45.635</v>
+        <v>48.33</v>
       </c>
       <c r="K2" t="n">
-        <v>12.99</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="3">
@@ -5783,28 +8367,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.57</v>
+        <v>41.54</v>
       </c>
       <c r="E3" t="n">
-        <v>8.395</v>
+        <v>5.48</v>
       </c>
       <c r="F3" t="n">
-        <v>26.94</v>
+        <v>25.02</v>
       </c>
       <c r="G3" t="n">
-        <v>25.465</v>
+        <v>30.75</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>37.47</v>
       </c>
       <c r="I3" t="n">
-        <v>35.855</v>
+        <v>41.54</v>
       </c>
       <c r="J3" t="n">
-        <v>41.595</v>
+        <v>34.86</v>
       </c>
       <c r="K3" t="n">
-        <v>47.95</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.05</v>
+        <v>29.77</v>
       </c>
       <c r="C4" t="n">
-        <v>34.57</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.36</v>
+        <v>27.52</v>
       </c>
       <c r="F4" t="n">
-        <v>28.685</v>
+        <v>22.46</v>
       </c>
       <c r="G4" t="n">
         <v>48.33</v>
       </c>
       <c r="H4" t="n">
-        <v>32.355</v>
+        <v>31.89</v>
       </c>
       <c r="I4" t="n">
-        <v>28.495</v>
+        <v>43.15</v>
       </c>
       <c r="J4" t="n">
-        <v>37.795</v>
+        <v>27.26</v>
       </c>
       <c r="K4" t="n">
-        <v>47.705</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38.595</v>
+        <v>28.86</v>
       </c>
       <c r="C5" t="n">
-        <v>8.395</v>
+        <v>11.31</v>
       </c>
       <c r="D5" t="n">
-        <v>32.36</v>
+        <v>37.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.095</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>25.3</v>
+        <v>19.06</v>
       </c>
       <c r="H5" t="n">
-        <v>33.195</v>
+        <v>26.72</v>
       </c>
       <c r="I5" t="n">
         <v>48.33</v>
       </c>
       <c r="J5" t="n">
-        <v>38.365</v>
+        <v>40.95</v>
       </c>
       <c r="K5" t="n">
-        <v>30.905</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.03</v>
+        <v>31.87</v>
       </c>
       <c r="C6" t="n">
-        <v>26.94</v>
+        <v>28.86</v>
       </c>
       <c r="D6" t="n">
-        <v>28.685</v>
+        <v>34.91</v>
       </c>
       <c r="E6" t="n">
-        <v>18.095</v>
+        <v>27.19</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.92</v>
+        <v>33.16</v>
       </c>
       <c r="H6" t="n">
-        <v>29.075</v>
+        <v>30.17</v>
       </c>
       <c r="I6" t="n">
-        <v>17.61</v>
+        <v>12.09</v>
       </c>
       <c r="J6" t="n">
-        <v>25.39</v>
+        <v>26.74</v>
       </c>
       <c r="K6" t="n">
-        <v>13.615</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.175</v>
+        <v>27.74</v>
       </c>
       <c r="C7" t="n">
-        <v>25.465</v>
+        <v>20.18</v>
       </c>
       <c r="D7" t="n">
         <v>48.33</v>
       </c>
       <c r="E7" t="n">
-        <v>25.3</v>
+        <v>31.54</v>
       </c>
       <c r="F7" t="n">
-        <v>23.92</v>
+        <v>14.68</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.26</v>
+        <v>22.19</v>
       </c>
       <c r="I7" t="n">
-        <v>17.16</v>
+        <v>22.1</v>
       </c>
       <c r="J7" t="n">
-        <v>25.265</v>
+        <v>22.19</v>
       </c>
       <c r="K7" t="n">
-        <v>38.38500000000001</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.695</v>
+        <v>6.13</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>36.53</v>
       </c>
       <c r="D8" t="n">
-        <v>32.355</v>
+        <v>32.82</v>
       </c>
       <c r="E8" t="n">
-        <v>33.195</v>
+        <v>39.67</v>
       </c>
       <c r="F8" t="n">
-        <v>29.075</v>
+        <v>27.98</v>
       </c>
       <c r="G8" t="n">
-        <v>35.26</v>
+        <v>48.33</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.07</v>
+        <v>47.99</v>
       </c>
       <c r="J8" t="n">
-        <v>36.925</v>
+        <v>48.33</v>
       </c>
       <c r="K8" t="n">
-        <v>31.625</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.28</v>
+        <v>26.47</v>
       </c>
       <c r="C9" t="n">
-        <v>35.855</v>
+        <v>30.17</v>
       </c>
       <c r="D9" t="n">
-        <v>28.495</v>
+        <v>13.84</v>
       </c>
       <c r="E9" t="n">
         <v>48.33</v>
       </c>
       <c r="F9" t="n">
-        <v>17.61</v>
+        <v>23.13</v>
       </c>
       <c r="G9" t="n">
-        <v>17.16</v>
+        <v>12.22</v>
       </c>
       <c r="H9" t="n">
-        <v>37.07</v>
+        <v>26.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.835000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="K9" t="n">
-        <v>23.555</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45.635</v>
+        <v>42.94</v>
       </c>
       <c r="C10" t="n">
-        <v>41.595</v>
+        <v>48.33</v>
       </c>
       <c r="D10" t="n">
-        <v>37.795</v>
+        <v>48.33</v>
       </c>
       <c r="E10" t="n">
-        <v>38.365</v>
+        <v>35.78</v>
       </c>
       <c r="F10" t="n">
-        <v>25.39</v>
+        <v>24.04</v>
       </c>
       <c r="G10" t="n">
-        <v>25.265</v>
+        <v>28.34</v>
       </c>
       <c r="H10" t="n">
-        <v>36.925</v>
+        <v>25.52</v>
       </c>
       <c r="I10" t="n">
-        <v>9.835000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.425</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99</v>
+        <v>12.95</v>
       </c>
       <c r="C11" t="n">
-        <v>47.95</v>
+        <v>47.57</v>
       </c>
       <c r="D11" t="n">
-        <v>47.705</v>
+        <v>48.33</v>
       </c>
       <c r="E11" t="n">
-        <v>30.905</v>
+        <v>36.61</v>
       </c>
       <c r="F11" t="n">
-        <v>13.615</v>
+        <v>15.42</v>
       </c>
       <c r="G11" t="n">
-        <v>38.38500000000001</v>
+        <v>37.32</v>
       </c>
       <c r="H11" t="n">
-        <v>31.625</v>
+        <v>34.09</v>
       </c>
       <c r="I11" t="n">
-        <v>23.555</v>
+        <v>24.29</v>
       </c>
       <c r="J11" t="n">
-        <v>23.425</v>
+        <v>26.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24.84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31.31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="E11" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.97988644125688</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.73748045062689</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-10.4068442380332</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.612395364439864</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.29540460229462</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-3.314214349818784</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-11.2990761154645</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.60868534350472</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-9.939199620366248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.948041502463298</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.538818852130905</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-7.176742065891212</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.967433746311732</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21.71489542363919</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.8532065189724146</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-7.925015249406867</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13.65014473966031</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-4.084744621498533</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.25642136781156</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.6166795714609</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.28</v>
+        <v>48.33</v>
       </c>
       <c r="D2" t="n">
-        <v>37.72</v>
+        <v>37.93</v>
       </c>
       <c r="E2" t="n">
-        <v>28.63</v>
+        <v>37.35</v>
       </c>
       <c r="F2" t="n">
-        <v>23.5</v>
+        <v>24.07</v>
       </c>
       <c r="G2" t="n">
-        <v>37.76</v>
+        <v>31.87</v>
       </c>
       <c r="H2" t="n">
-        <v>7.13</v>
+        <v>8.31</v>
       </c>
       <c r="I2" t="n">
-        <v>35.69</v>
+        <v>30.91</v>
       </c>
       <c r="J2" t="n">
-        <v>30.45</v>
+        <v>45.56</v>
       </c>
       <c r="K2" t="n">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.28</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12</v>
+        <v>33.86</v>
       </c>
       <c r="E3" t="n">
-        <v>8.710000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="F3" t="n">
-        <v>13.78</v>
+        <v>26.87</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>24.91</v>
       </c>
       <c r="H3" t="n">
-        <v>32.19</v>
+        <v>36.99</v>
       </c>
       <c r="I3" t="n">
-        <v>5.64</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>7.39</v>
+        <v>41.05</v>
       </c>
       <c r="K3" t="n">
-        <v>25.67</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.72</v>
+        <v>37.93</v>
       </c>
       <c r="C4" t="n">
-        <v>5.12</v>
+        <v>33.86</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.710000000000001</v>
+        <v>31.99</v>
       </c>
       <c r="F4" t="n">
-        <v>14.77</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>48.33</v>
       </c>
       <c r="H4" t="n">
-        <v>31.95</v>
+        <v>32.35</v>
       </c>
       <c r="I4" t="n">
-        <v>10.6</v>
+        <v>24.44</v>
       </c>
       <c r="J4" t="n">
-        <v>10.42</v>
+        <v>36.3</v>
       </c>
       <c r="K4" t="n">
-        <v>27.19</v>
+        <v>47.71</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.63</v>
+        <v>37.35</v>
       </c>
       <c r="C5" t="n">
-        <v>8.710000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="D5" t="n">
-        <v>9.710000000000001</v>
+        <v>31.99</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.19</v>
+        <v>15.65</v>
       </c>
       <c r="G5" t="n">
-        <v>9.18</v>
+        <v>24.52</v>
       </c>
       <c r="H5" t="n">
-        <v>23.49</v>
+        <v>32.56</v>
       </c>
       <c r="I5" t="n">
-        <v>9.119999999999999</v>
+        <v>48.33</v>
       </c>
       <c r="J5" t="n">
-        <v>3.91</v>
+        <v>38.28</v>
       </c>
       <c r="K5" t="n">
-        <v>17.52</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.5</v>
+        <v>24.07</v>
       </c>
       <c r="C6" t="n">
-        <v>13.78</v>
+        <v>26.87</v>
       </c>
       <c r="D6" t="n">
-        <v>14.77</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>5.19</v>
+        <v>15.65</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.37</v>
+        <v>22.06</v>
       </c>
       <c r="H6" t="n">
-        <v>18.64</v>
+        <v>29.05</v>
       </c>
       <c r="I6" t="n">
-        <v>12.95</v>
+        <v>16.72</v>
       </c>
       <c r="J6" t="n">
-        <v>7.34</v>
+        <v>25.36</v>
       </c>
       <c r="K6" t="n">
-        <v>12.43</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.76</v>
+        <v>31.87</v>
       </c>
       <c r="C7" t="n">
-        <v>2.32</v>
+        <v>24.91</v>
       </c>
       <c r="D7" t="n">
-        <v>2.86</v>
+        <v>48.33</v>
       </c>
       <c r="E7" t="n">
-        <v>9.18</v>
+        <v>24.52</v>
       </c>
       <c r="F7" t="n">
-        <v>14.37</v>
+        <v>22.06</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.36</v>
+        <v>32.75</v>
       </c>
       <c r="I7" t="n">
-        <v>7.93</v>
+        <v>16.44</v>
       </c>
       <c r="J7" t="n">
-        <v>8.81</v>
+        <v>25.08</v>
       </c>
       <c r="K7" t="n">
-        <v>26.59</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.13</v>
+        <v>8.31</v>
       </c>
       <c r="C8" t="n">
-        <v>32.19</v>
+        <v>36.99</v>
       </c>
       <c r="D8" t="n">
-        <v>31.95</v>
+        <v>32.35</v>
       </c>
       <c r="E8" t="n">
-        <v>23.49</v>
+        <v>32.56</v>
       </c>
       <c r="F8" t="n">
-        <v>18.64</v>
+        <v>29.05</v>
       </c>
       <c r="G8" t="n">
-        <v>32.36</v>
+        <v>32.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31.47</v>
+        <v>35.43</v>
       </c>
       <c r="J8" t="n">
-        <v>25.94</v>
+        <v>35.12</v>
       </c>
       <c r="K8" t="n">
-        <v>11.51</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.69</v>
+        <v>30.91</v>
       </c>
       <c r="C9" t="n">
-        <v>5.64</v>
+        <v>35.4</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6</v>
+        <v>24.44</v>
       </c>
       <c r="E9" t="n">
-        <v>9.119999999999999</v>
+        <v>48.33</v>
       </c>
       <c r="F9" t="n">
-        <v>12.95</v>
+        <v>16.72</v>
       </c>
       <c r="G9" t="n">
-        <v>7.93</v>
+        <v>16.44</v>
       </c>
       <c r="H9" t="n">
-        <v>31.47</v>
+        <v>35.43</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.64</v>
+        <v>9.75</v>
       </c>
       <c r="K9" t="n">
-        <v>23.25</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.45</v>
+        <v>45.56</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>41.05</v>
       </c>
       <c r="D10" t="n">
-        <v>10.42</v>
+        <v>36.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3.91</v>
+        <v>38.28</v>
       </c>
       <c r="F10" t="n">
-        <v>7.34</v>
+        <v>25.36</v>
       </c>
       <c r="G10" t="n">
-        <v>8.81</v>
+        <v>25.08</v>
       </c>
       <c r="H10" t="n">
-        <v>25.94</v>
+        <v>35.12</v>
       </c>
       <c r="I10" t="n">
-        <v>5.64</v>
+        <v>9.75</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.42</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="C11" t="n">
-        <v>25.67</v>
+        <v>47.95</v>
       </c>
       <c r="D11" t="n">
-        <v>27.19</v>
+        <v>47.71</v>
       </c>
       <c r="E11" t="n">
-        <v>17.52</v>
+        <v>30.37</v>
       </c>
       <c r="F11" t="n">
-        <v>12.43</v>
+        <v>13.49</v>
       </c>
       <c r="G11" t="n">
-        <v>26.59</v>
+        <v>38.37</v>
       </c>
       <c r="H11" t="n">
-        <v>11.51</v>
+        <v>31.53</v>
       </c>
       <c r="I11" t="n">
-        <v>23.25</v>
+        <v>23.54</v>
       </c>
       <c r="J11" t="n">
-        <v>18.42</v>
+        <v>23.19</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
